--- a/config/excel/herostage.xlsx
+++ b/config/excel/herostage.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14175"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="herolevel" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -282,12 +289,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -602,76 +621,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,10 +693,10 @@
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,10 +705,10 @@
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,10 +717,10 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,10 +729,10 @@
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,18 +741,39 @@
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,7 +1312,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1292,54 +1326,54 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:9">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1347,39 +1381,39 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="1:9">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
@@ -1391,21 +1425,21 @@
       <c r="G4">
         <v>100</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>50</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:9">
+    <row r="5" customFormat="1" spans="1:9">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E5">
@@ -1417,21 +1451,21 @@
       <c r="G5">
         <v>150</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>80</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="2:9">
+    <row r="6" customFormat="1" spans="1:9">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E6">
@@ -1443,21 +1477,21 @@
       <c r="G6">
         <v>200</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>110</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="1:9">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E7">
@@ -1469,10 +1503,10 @@
       <c r="G7">
         <v>250</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>140</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1483,10 +1517,10 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E8">
@@ -1498,22 +1532,22 @@
       <c r="G8">
         <v>300</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>170</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+    <row r="9" spans="1:9">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:9">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
